--- a/Acceptance Testing 2.xlsx
+++ b/Acceptance Testing 2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="165">
   <si>
     <t xml:space="preserve">Use Case: </t>
   </si>
@@ -217,11 +217,6 @@
     <t>UserSearchSuccess</t>
   </si>
   <si>
-    <t>open "report: user"
-type account ID: 3785234
-clicks "ok" button</t>
-  </si>
-  <si>
     <t>3.1.1. user does not exist
 3.1.2. system throws error message "user does not exist"</t>
   </si>
@@ -324,11 +319,6 @@
     <t>UserSearchEmptyField</t>
   </si>
   <si>
-    <t>open "report: user"
-type account ID: 
-clicks "ok" button</t>
-  </si>
-  <si>
     <t>BookSearchNoBook</t>
   </si>
   <si>
@@ -337,11 +327,6 @@
 clicks "ok" button</t>
   </si>
   <si>
-    <t>open "report: user"
-type account ID: 2345236
-clicks "ok" button</t>
-  </si>
-  <si>
     <t>BookSearchEmptyField</t>
   </si>
   <si>
@@ -352,12 +337,6 @@
   <si>
     <t>account ID in DB,
 the searcher is a manager</t>
-  </si>
-  <si>
-    <t>system open user report window</t>
-  </si>
-  <si>
-    <t>system open book report window</t>
   </si>
   <si>
     <t>book Id in DB,
@@ -507,9 +486,6 @@
     <t>Type Account ID: 268</t>
   </si>
   <si>
-    <t>Type Account password:68757</t>
-  </si>
-  <si>
     <t>Click "ok" button</t>
   </si>
   <si>
@@ -549,9 +525,6 @@
     <t>Type Account ID: 789</t>
   </si>
   <si>
-    <t>Type Account password:53269</t>
-  </si>
-  <si>
     <t>Account was updated successfully,</t>
   </si>
   <si>
@@ -582,9 +555,6 @@
     <t>Type Account ID: 435</t>
   </si>
   <si>
-    <t>Type Account password:58972</t>
-  </si>
-  <si>
     <t>System throws out a warning massage "Account ID already exist in the DB"</t>
   </si>
   <si>
@@ -639,9 +609,6 @@
     <t>CreateEmployeeNoPass</t>
   </si>
   <si>
-    <t>Type Account password:</t>
-  </si>
-  <si>
     <t>System throws out a warning massage "Account password is missing".</t>
   </si>
   <si>
@@ -654,23 +621,212 @@
     <t>Type Account ID to change:</t>
   </si>
   <si>
-    <t>UpdateUserInfoIDConflict</t>
-  </si>
-  <si>
-    <t>System throws out a warning massage "Account ID is conflicting with an existing account".</t>
-  </si>
-  <si>
-    <t>Account ID to change and account ID exist in the DB</t>
-  </si>
-  <si>
-    <t>Checking for conflicts</t>
+    <t>open "report: user" window
+type account ID: 3785234
+clicks "ok" button</t>
+  </si>
+  <si>
+    <t>system found the book id in DB
+system open book report window</t>
+  </si>
+  <si>
+    <t>system found the account id DB
+system open user report window</t>
+  </si>
+  <si>
+    <t>open "report: user" window
+type account ID: 2345236
+clicks "ok" button</t>
+  </si>
+  <si>
+    <t>open "report: user" window
+type account ID: 
+clicks "ok" button</t>
+  </si>
+  <si>
+    <t>worker ID</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">department </t>
+  </si>
+  <si>
+    <t>Jesus@gmail.com</t>
+  </si>
+  <si>
+    <t>Howard@gmail.com</t>
+  </si>
+  <si>
+    <t>Paula@gmail.com</t>
+  </si>
+  <si>
+    <t>Zachary@gmail.com</t>
+  </si>
+  <si>
+    <t>menegment</t>
+  </si>
+  <si>
+    <t>meneger</t>
+  </si>
+  <si>
+    <t>librerian</t>
+  </si>
+  <si>
+    <t>librerian dept.</t>
+  </si>
+  <si>
+    <t>CreateEmployeeNoWorkerID</t>
+  </si>
+  <si>
+    <t>CreateEmployeeWorkerIDExist</t>
+  </si>
+  <si>
+    <t>CreateEmployeeNoEmail</t>
+  </si>
+  <si>
+    <t>CreateEmployeeEmailExist</t>
+  </si>
+  <si>
+    <t>Type Account password:53269
+Type worker ID: 728974
+type account email: sheri@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.</t>
+  </si>
+  <si>
+    <t>Open "create employee" window
+Type Account first name: Wayne
+Type Account last name: Watson
+Type Account ID: 268
+Type Account password:
+Type worker ID: 728974
+type account email: Jesus@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.
+Click "ok" button</t>
+  </si>
+  <si>
+    <t>Open "create employee" window
+Type Account first name: Wayne
+Type Account last name: Watson
+Type Account ID: 268
+Type Account password:
+Type worker ID: 728974
+type account email:
+select account role: librarian
+select account departmnet: librerian dept.
+Click "ok" button</t>
+  </si>
+  <si>
+    <t>Open "create employee" window
+Type Account first name: Wayne
+Type Account last name: Watson
+Type Account ID: 268
+Type Account password:
+Type worker ID: 
+type account email: wayne@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.
+Click "ok" button</t>
+  </si>
+  <si>
+    <t>Open "create employee" window
+Type Account first name: Wayne
+Type Account last name: Watson
+Type Account ID: 268
+Type Account password:
+Type worker ID: 728974
+type account email: wayne@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.
+Click "ok" button</t>
+  </si>
+  <si>
+    <t>Type Account password:
+Type worker ID: 124556
+type account email: wayne@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.</t>
+  </si>
+  <si>
+    <t>Type Account password:68757
+Type worker ID: 124556
+type account email: wayne@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.</t>
+  </si>
+  <si>
+    <t>Type Account password:58972
+Type worker ID: 134456
+type account email: jason@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.</t>
+  </si>
+  <si>
+    <t>UpdateUserInfoEmailConflict</t>
+  </si>
+  <si>
+    <t>UpdateUserInfoIDNotExist</t>
+  </si>
+  <si>
+    <t>Open "update user info" window
+Type Account ID to change:
+Choose the fields to update
+Type Account first name: Sheri
+Type Account last name: Holmes
+Type Account ID: 789
+Type Account password:53269
+Type worker ID: 559324
+type account email: Jesus@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.
+click "ok" button</t>
+  </si>
+  <si>
+    <t>Open "update user info" window
+Type Account ID to change:
+Choose the fields to update
+Type Account first name: Sheri
+Type Account last name: Holmes
+Type Account ID: 111
+Type Account password:53269
+Type worker ID: 559324
+type account email: sheri@gmail.com
+select account role: librarian
+select account departmnet: librerian dept.
+click "ok" button</t>
+  </si>
+  <si>
+    <t>System throws out a warning massage "Account workerID is missing".</t>
+  </si>
+  <si>
+    <t>System throws out a warning massage "Account workerID already exist in the DB"
+system clean all fields</t>
+  </si>
+  <si>
+    <t>System throws out a warning massage "Account email is missing".</t>
+  </si>
+  <si>
+    <t>System throws out a warning massage "Account email already exist in the DB"
+system clean all fields</t>
+  </si>
+  <si>
+    <t>System throws out a warning massage "Account ID does not exist in DB".</t>
+  </si>
+  <si>
+    <t>The creator is a manager</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -753,8 +909,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -791,8 +955,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="34">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1213,11 +1383,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1322,42 +1504,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1370,21 +1516,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1420,9 +1557,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1434,32 +1568,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1743,54 +1934,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:K94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="4" customWidth="1"/>
     <col min="4" max="4" width="37.85546875" style="4" customWidth="1"/>
     <col min="5" max="5" width="24.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="24.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="25.5703125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="16.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="40"/>
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="71"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
       <c r="G1"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H1"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2"/>
       <c r="D2"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="G2"/>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D3"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
@@ -1801,8 +2005,12 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H4"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>2</v>
       </c>
@@ -1811,8 +2019,12 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5"/>
-    </row>
-    <row r="6" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H5"/>
+      <c r="I5"/>
+      <c r="J5"/>
+      <c r="K5"/>
+    </row>
+    <row r="6" spans="2:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1823,82 +2035,122 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
-    </row>
-    <row r="7" spans="2:7" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6"/>
+      <c r="I6"/>
+      <c r="J6"/>
+      <c r="K6"/>
+    </row>
+    <row r="7" spans="2:11" ht="78" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
+      <c r="C7" s="72"/>
+      <c r="D7" s="73"/>
       <c r="E7"/>
       <c r="F7"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="2:7" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G7"/>
+      <c r="H7"/>
+      <c r="I7"/>
+      <c r="J7"/>
+      <c r="K7" s="13"/>
+    </row>
+    <row r="8" spans="2:11" ht="7.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="27"/>
       <c r="C8" s="28"/>
       <c r="D8" s="29"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
-    </row>
-    <row r="9" spans="2:7" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H8"/>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+    </row>
+    <row r="9" spans="2:11" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="24"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="44"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="75"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
-    </row>
-    <row r="10" spans="2:7" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9"/>
+      <c r="I9"/>
+      <c r="J9"/>
+      <c r="K9"/>
+    </row>
+    <row r="10" spans="2:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="30"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-    </row>
-    <row r="11" spans="2:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+    </row>
+    <row r="11" spans="2:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="25"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
-    </row>
-    <row r="12" spans="2:7" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11"/>
+      <c r="I11"/>
+      <c r="J11"/>
+      <c r="K11"/>
+    </row>
+    <row r="12" spans="2:11" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="31"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
-    </row>
-    <row r="13" spans="2:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H12"/>
+      <c r="I12"/>
+      <c r="J12"/>
+      <c r="K12"/>
+    </row>
+    <row r="13" spans="2:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="31"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="39"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
-    </row>
-    <row r="14" spans="2:7" ht="73.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+    </row>
+    <row r="14" spans="2:11" ht="73.900000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="26"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="48"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="70"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
-    </row>
-    <row r="16" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+    </row>
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>4</v>
       </c>
@@ -1907,877 +2159,1341 @@
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="67" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="68" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" s="68" t="s">
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="68" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="69" t="s">
+      <c r="E17" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="J17" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="55">
+        <v>435</v>
+      </c>
+      <c r="E18" s="55">
+        <v>12345</v>
+      </c>
+      <c r="F18" s="55">
+        <v>559324</v>
+      </c>
+      <c r="G18" s="82" t="s">
+        <v>135</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="I18" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="J18" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="K18" s="55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="D19" s="55">
+        <v>214</v>
+      </c>
+      <c r="E19" s="55">
+        <v>56897</v>
+      </c>
+      <c r="F19" s="55">
+        <v>728974</v>
+      </c>
+      <c r="G19" s="83" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I19" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="J19" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="K19" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="70">
-        <v>435</v>
-      </c>
-      <c r="E18" s="70">
-        <v>12345</v>
-      </c>
-      <c r="F18" s="70" t="s">
+    </row>
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="G18" s="70" t="s">
+      <c r="C20" s="55" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="69" t="s">
+      <c r="D20" s="55">
+        <v>424</v>
+      </c>
+      <c r="E20" s="55">
+        <v>78941</v>
+      </c>
+      <c r="F20" s="55">
+        <v>348903</v>
+      </c>
+      <c r="G20" s="83" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I20" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="J20" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C19" s="70" t="s">
+      <c r="K20" s="55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="D19" s="70">
-        <v>214</v>
-      </c>
-      <c r="E19" s="70">
-        <v>56897</v>
-      </c>
-      <c r="F19" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="70" t="s">
+      <c r="C21" s="52" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="69" t="s">
+      <c r="D21" s="52">
+        <v>896</v>
+      </c>
+      <c r="E21" s="55">
+        <v>15879</v>
+      </c>
+      <c r="F21" s="55">
+        <v>473289</v>
+      </c>
+      <c r="G21" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="H21" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="I21" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="J21" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="K21" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="C20" s="70" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20" s="70">
-        <v>424</v>
-      </c>
-      <c r="E20" s="70">
-        <v>78941</v>
-      </c>
-      <c r="F20" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="G20" s="70" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="43.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="69" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="67" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="67">
-        <v>896</v>
-      </c>
-      <c r="E21" s="70">
-        <v>15879</v>
-      </c>
-      <c r="F21" s="70" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="70" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="22"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="71"/>
+    </row>
+    <row r="22" spans="1:11" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+      <c r="K22" s="22"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="41"/>
       <c r="C23"/>
       <c r="D23"/>
       <c r="E23"/>
       <c r="F23"/>
-    </row>
-    <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="34" t="s">
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23"/>
+    </row>
+    <row r="24" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="87" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="82" t="s">
+      <c r="B25" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="83" t="s">
+      <c r="C25" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="83" t="s">
+      <c r="D25" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="83" t="s">
+      <c r="E25" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="83" t="s">
-        <v>80</v>
+      <c r="F25" s="60" t="s">
+        <v>75</v>
       </c>
       <c r="G25"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+    </row>
+    <row r="26" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="33">
         <v>1</v>
       </c>
-      <c r="B26" s="77" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="73" t="s">
+      <c r="B26" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="57" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="73" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="73" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="77" t="s">
-        <v>92</v>
+      <c r="E26" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="61" t="s">
+        <v>86</v>
       </c>
       <c r="G26"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+      <c r="K26"/>
+    </row>
+    <row r="27" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="33">
         <v>2</v>
       </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="73" t="s">
+      <c r="B27" s="62"/>
+      <c r="C27" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="73" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="73" t="s">
-        <v>91</v>
-      </c>
-      <c r="F27" s="76"/>
+      <c r="E27" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="62"/>
       <c r="G27"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+    </row>
+    <row r="28" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="33">
         <v>3</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="76"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="62"/>
       <c r="G28"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>4</v>
       </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="76"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="62"/>
       <c r="G29"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+    </row>
+    <row r="30" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>5</v>
       </c>
-      <c r="B30" s="76"/>
-      <c r="C30" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="76"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="62"/>
       <c r="G30"/>
-    </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+      <c r="K30"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>6</v>
       </c>
-      <c r="B31" s="78"/>
-      <c r="C31" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="75"/>
-      <c r="F31" s="78"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="63"/>
       <c r="G31"/>
-    </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+    </row>
+    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>7</v>
       </c>
-      <c r="B32" s="77" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="73" t="s">
+      <c r="B32" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="D32" s="73" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" s="73" t="s">
-        <v>103</v>
-      </c>
-      <c r="F32" s="77" t="s">
-        <v>106</v>
+      <c r="E32" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="F32" s="61" t="s">
+        <v>99</v>
       </c>
       <c r="G32"/>
-    </row>
-    <row r="33" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+    </row>
+    <row r="33" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>8</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="73" t="s">
+      <c r="B33" s="62"/>
+      <c r="C33" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="73" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="73" t="s">
-        <v>104</v>
-      </c>
-      <c r="F33" s="76"/>
+      <c r="E33" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="F33" s="62"/>
       <c r="G33"/>
-    </row>
-    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33"/>
+      <c r="K33"/>
+    </row>
+    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>9</v>
       </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="74"/>
-      <c r="E34" s="73" t="s">
+      <c r="B34" s="62"/>
+      <c r="C34" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="58"/>
+      <c r="E34" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="F34" s="62"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+    </row>
+    <row r="35" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="62"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35"/>
+      <c r="K35"/>
+    </row>
+    <row r="36" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="62"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36"/>
+      <c r="K36"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="58"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="62"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+    </row>
+    <row r="38" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="58"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="62"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="59"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="63"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39"/>
+      <c r="K39"/>
+    </row>
+    <row r="40" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E40" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="F40" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
+      <c r="K40"/>
+    </row>
+    <row r="41" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B41" s="62"/>
+      <c r="C41" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D41" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="F34" s="76"/>
-      <c r="G34"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35"/>
-      <c r="B35" s="76"/>
-      <c r="C35" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="74"/>
-      <c r="E35" s="74"/>
-      <c r="F35" s="76"/>
-      <c r="G35"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="73" t="s">
+      <c r="E41" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="62"/>
+      <c r="G41" s="3"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41"/>
+      <c r="K41"/>
+    </row>
+    <row r="42" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="62"/>
+      <c r="C42" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="3"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="62"/>
+      <c r="C43" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="3"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+    </row>
+    <row r="44" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="B44" s="62"/>
+      <c r="C44" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="3"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
+      <c r="K44"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="63"/>
+      <c r="C45" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D45" s="59"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="3"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+    </row>
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B46" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E46" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="F46" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46" s="3"/>
+      <c r="H46"/>
+      <c r="I46"/>
+      <c r="J46"/>
+      <c r="K46"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="62"/>
+      <c r="C47" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47"/>
+      <c r="I47"/>
+      <c r="J47"/>
+      <c r="K47"/>
+    </row>
+    <row r="48" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B48" s="62"/>
+      <c r="C48" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="62"/>
+      <c r="E48" s="62"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="3"/>
+      <c r="H48"/>
+      <c r="I48"/>
+      <c r="J48"/>
+      <c r="K48"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B49" s="62"/>
+      <c r="C49" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="62"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="3"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+    </row>
+    <row r="50" spans="2:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="B50" s="62"/>
+      <c r="C50" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="3"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+    </row>
+    <row r="51" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="63"/>
+      <c r="C51" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="3"/>
+      <c r="H51"/>
+      <c r="I51"/>
+      <c r="J51"/>
+      <c r="K51"/>
+    </row>
+    <row r="52" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="E52" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="F52" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G52" s="3"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+    </row>
+    <row r="53" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B53" s="65"/>
+      <c r="C53" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="62"/>
+      <c r="E53" s="62"/>
+      <c r="F53" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="G53" s="3"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B54" s="65"/>
+      <c r="C54" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="62"/>
+      <c r="E54" s="62"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="3"/>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B55" s="65"/>
+      <c r="C55" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="3"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+    </row>
+    <row r="56" spans="2:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="B56" s="65"/>
+      <c r="C56" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="62"/>
+      <c r="E56" s="62"/>
+      <c r="F56" s="58"/>
+      <c r="G56" s="3"/>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+    </row>
+    <row r="57" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="66"/>
+      <c r="C57" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="59"/>
+      <c r="G57" s="3"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+    </row>
+    <row r="58" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B58" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="E58" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G58" s="3"/>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+    </row>
+    <row r="59" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="62"/>
+      <c r="C59" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="62"/>
+      <c r="E59" s="62"/>
+      <c r="F59" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="3"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+    </row>
+    <row r="60" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60" s="62"/>
+      <c r="C60" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="62"/>
+      <c r="E60" s="62"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="3"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B61" s="62"/>
+      <c r="C61" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="62"/>
+      <c r="E61" s="62"/>
+      <c r="F61" s="58"/>
+      <c r="G61" s="3"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+    </row>
+    <row r="62" spans="2:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="B62" s="62"/>
+      <c r="C62" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="62"/>
+      <c r="E62" s="62"/>
+      <c r="F62" s="58"/>
+      <c r="G62" s="3"/>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+    </row>
+    <row r="63" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="63"/>
+      <c r="C63" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" s="63"/>
+      <c r="E63" s="63"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="3"/>
+      <c r="H63"/>
+      <c r="I63"/>
+      <c r="J63"/>
+      <c r="K63"/>
+    </row>
+    <row r="64" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B64" s="61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="F64" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G64" s="3"/>
+      <c r="H64"/>
+      <c r="I64"/>
+      <c r="J64"/>
+      <c r="K64"/>
+    </row>
+    <row r="65" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="62"/>
+      <c r="C65" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="62"/>
+      <c r="E65" s="62"/>
+      <c r="F65" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65"/>
+      <c r="I65"/>
+      <c r="J65"/>
+      <c r="K65"/>
+    </row>
+    <row r="66" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B66" s="62"/>
+      <c r="C66" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="D66" s="62"/>
+      <c r="E66" s="62"/>
+      <c r="F66" s="58"/>
+      <c r="G66" s="3"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
+      <c r="K66"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" s="62"/>
+      <c r="C67" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="62"/>
+      <c r="E67" s="62"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="3"/>
+      <c r="H67"/>
+      <c r="I67"/>
+      <c r="J67"/>
+      <c r="K67"/>
+    </row>
+    <row r="68" spans="2:11" ht="135" x14ac:dyDescent="0.25">
+      <c r="B68" s="62"/>
+      <c r="C68" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" s="62"/>
+      <c r="E68" s="62"/>
+      <c r="F68" s="58"/>
+      <c r="G68" s="3"/>
+      <c r="H68"/>
+      <c r="I68"/>
+      <c r="J68"/>
+      <c r="K68"/>
+    </row>
+    <row r="69" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="63"/>
+      <c r="C69" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D69" s="63"/>
+      <c r="E69" s="63"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="3"/>
+      <c r="H69"/>
+      <c r="I69"/>
+      <c r="J69"/>
+      <c r="K69"/>
+    </row>
+    <row r="70" spans="2:11" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="E70" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="F70" s="84"/>
+      <c r="G70" s="3"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
+      <c r="K70"/>
+    </row>
+    <row r="71" spans="2:11" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="52" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="F71" s="84"/>
+      <c r="G71" s="3"/>
+      <c r="H71"/>
+      <c r="I71"/>
+      <c r="J71"/>
+      <c r="K71"/>
+    </row>
+    <row r="72" spans="2:11" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D72" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="E72" s="52"/>
+      <c r="F72" s="84"/>
+      <c r="G72" s="3"/>
+      <c r="H72"/>
+      <c r="I72"/>
+      <c r="J72"/>
+      <c r="K72"/>
+    </row>
+    <row r="73" spans="2:11" ht="255.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C73" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D73" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="F73" s="84"/>
+      <c r="G73" s="3"/>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73"/>
+      <c r="K73"/>
+    </row>
+    <row r="74" spans="2:11" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="C74" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D74" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="E74" s="52"/>
+      <c r="F74" s="84"/>
+      <c r="G74" s="3"/>
+      <c r="H74"/>
+      <c r="I74"/>
+      <c r="J74"/>
+      <c r="K74"/>
+    </row>
+    <row r="75" spans="2:11" ht="315.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C75" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="D75" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="E75" s="52" t="s">
         <v>98</v>
       </c>
-      <c r="D36" s="74"/>
-      <c r="E36" s="74"/>
-      <c r="F36" s="76"/>
-      <c r="G36"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="74"/>
-      <c r="E37" s="74"/>
-      <c r="F37" s="76"/>
-      <c r="G37"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="D38" s="74"/>
-      <c r="E38" s="74"/>
-      <c r="F38" s="76"/>
-      <c r="G38"/>
-    </row>
-    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D39" s="75"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="78"/>
-      <c r="G39"/>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="77" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="73" t="s">
-        <v>112</v>
-      </c>
-      <c r="E40" s="73" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" s="77" t="s">
-        <v>115</v>
-      </c>
-      <c r="G40"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="76"/>
-      <c r="C41" s="73" t="s">
-        <v>108</v>
-      </c>
-      <c r="D41" s="73" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="73" t="s">
+      <c r="F75" s="84"/>
+      <c r="G75" s="3"/>
+      <c r="H75"/>
+      <c r="I75"/>
+      <c r="J75"/>
+      <c r="K75"/>
+    </row>
+    <row r="76" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B76" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C76" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" s="62" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="F76" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="G76" s="3"/>
+      <c r="H76"/>
+      <c r="I76"/>
+      <c r="J76"/>
+      <c r="K76"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" s="62"/>
+      <c r="C77" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="D77" s="62"/>
+      <c r="E77" s="62"/>
+      <c r="F77" s="57" t="s">
+        <v>120</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
+      <c r="K77"/>
+    </row>
+    <row r="78" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B78" s="62"/>
+      <c r="C78" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="62"/>
+      <c r="E78" s="62"/>
+      <c r="F78" s="58"/>
+      <c r="G78" s="3"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
+      <c r="K78"/>
+    </row>
+    <row r="79" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B79" s="62"/>
+      <c r="C79" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="F41" s="76"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="76"/>
-      <c r="C42" s="73" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="76"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="76"/>
-      <c r="C43" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="74"/>
-      <c r="E43" s="74"/>
-      <c r="F43" s="76"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="76"/>
-      <c r="C44" s="73" t="s">
-        <v>111</v>
-      </c>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="76"/>
-    </row>
-    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="78"/>
-      <c r="C45" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="75"/>
-      <c r="E45" s="75"/>
-      <c r="F45" s="78"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="77" t="s">
-        <v>116</v>
-      </c>
-      <c r="C46" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="77" t="s">
-        <v>118</v>
-      </c>
-      <c r="E46" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="F46" s="73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="76"/>
-      <c r="C47" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="D47" s="76"/>
-      <c r="E47" s="76"/>
-      <c r="F47" s="73" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="76"/>
-      <c r="C48" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="74"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="76"/>
-      <c r="C49" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="76"/>
-      <c r="E49" s="76"/>
-      <c r="F49" s="74"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="76"/>
-      <c r="C50" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="76"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="74"/>
-    </row>
-    <row r="51" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="78"/>
-      <c r="C51" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D51" s="78"/>
-      <c r="E51" s="78"/>
-      <c r="F51" s="75"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="80" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="D52" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="E52" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="F52" s="73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="79"/>
-      <c r="C53" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="73" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="79"/>
-      <c r="C54" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="76"/>
-      <c r="E54" s="76"/>
-      <c r="F54" s="74"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="79"/>
-      <c r="C55" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="76"/>
-      <c r="E55" s="76"/>
-      <c r="F55" s="74"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="79"/>
-      <c r="C56" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="D56" s="76"/>
-      <c r="E56" s="76"/>
-      <c r="F56" s="74"/>
-    </row>
-    <row r="57" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="81"/>
-      <c r="C57" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D57" s="78"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="75"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="77" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="D58" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="E58" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="F58" s="73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="76"/>
-      <c r="C59" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="73" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="76"/>
-      <c r="C60" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="74"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="76"/>
-      <c r="C61" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="76"/>
-      <c r="E61" s="76"/>
-      <c r="F61" s="74"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="76"/>
-      <c r="C62" s="73" t="s">
-        <v>86</v>
-      </c>
-      <c r="D62" s="76"/>
-      <c r="E62" s="76"/>
-      <c r="F62" s="74"/>
-    </row>
-    <row r="63" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="78"/>
-      <c r="C63" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D63" s="78"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="75"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="73" t="s">
-        <v>82</v>
-      </c>
-      <c r="D64" s="77" t="s">
-        <v>131</v>
-      </c>
-      <c r="E64" s="77" t="s">
-        <v>91</v>
-      </c>
-      <c r="F64" s="73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="76"/>
-      <c r="C65" s="73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" s="76"/>
-      <c r="E65" s="76"/>
-      <c r="F65" s="73" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="76"/>
-      <c r="C66" s="73" t="s">
-        <v>84</v>
-      </c>
-      <c r="D66" s="76"/>
-      <c r="E66" s="76"/>
-      <c r="F66" s="74"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="76"/>
-      <c r="C67" s="73" t="s">
-        <v>85</v>
-      </c>
-      <c r="D67" s="76"/>
-      <c r="E67" s="76"/>
-      <c r="F67" s="74"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="76"/>
-      <c r="C68" s="73" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="76"/>
-      <c r="E68" s="76"/>
-      <c r="F68" s="74"/>
-    </row>
-    <row r="69" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="78"/>
-      <c r="C69" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D69" s="78"/>
-      <c r="E69" s="78"/>
-      <c r="F69" s="75"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="77" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="D70" s="77" t="s">
-        <v>127</v>
-      </c>
-      <c r="E70" s="77" t="s">
-        <v>105</v>
-      </c>
-      <c r="F70" s="73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="76"/>
-      <c r="C71" s="73" t="s">
-        <v>134</v>
-      </c>
-      <c r="D71" s="76"/>
-      <c r="E71" s="76"/>
-      <c r="F71" s="73" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="76"/>
-      <c r="C72" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" s="76"/>
-      <c r="E72" s="76"/>
-      <c r="F72" s="74"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="76"/>
-      <c r="C73" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="74"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="76"/>
-      <c r="C74" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="D74" s="76"/>
-      <c r="E74" s="76"/>
-      <c r="F74" s="74"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="76"/>
-      <c r="C75" s="73" t="s">
-        <v>99</v>
-      </c>
-      <c r="D75" s="76"/>
-      <c r="E75" s="76"/>
-      <c r="F75" s="74"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="76"/>
-      <c r="C76" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="74"/>
-    </row>
-    <row r="77" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="78"/>
-      <c r="C77" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D77" s="78"/>
-      <c r="E77" s="78"/>
-      <c r="F77" s="75"/>
-    </row>
-    <row r="78" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B78" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" s="73" t="s">
-        <v>94</v>
-      </c>
-      <c r="D78" s="77" t="s">
-        <v>136</v>
-      </c>
-      <c r="E78" s="73" t="s">
-        <v>137</v>
-      </c>
-      <c r="F78" s="77" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="B79" s="76"/>
-      <c r="C79" s="73" t="s">
-        <v>95</v>
-      </c>
-      <c r="D79" s="76"/>
-      <c r="E79" s="73" t="s">
-        <v>105</v>
-      </c>
-      <c r="F79" s="76"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="76"/>
-      <c r="C80" s="73" t="s">
-        <v>96</v>
-      </c>
-      <c r="D80" s="76"/>
-      <c r="E80" s="74"/>
-      <c r="F80" s="76"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="76"/>
-      <c r="C81" s="73" t="s">
-        <v>97</v>
-      </c>
-      <c r="D81" s="76"/>
-      <c r="E81" s="74"/>
-      <c r="F81" s="76"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="76"/>
-      <c r="C82" s="73" t="s">
-        <v>98</v>
-      </c>
-      <c r="D82" s="76"/>
-      <c r="E82" s="74"/>
-      <c r="F82" s="76"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="76"/>
-      <c r="C83" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="D83" s="76"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="76"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="76"/>
-      <c r="C84" s="73" t="s">
-        <v>100</v>
-      </c>
-      <c r="D84" s="76"/>
-      <c r="E84" s="74"/>
-      <c r="F84" s="76"/>
-    </row>
-    <row r="85" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="78"/>
-      <c r="C85" s="70" t="s">
-        <v>87</v>
-      </c>
-      <c r="D85" s="78"/>
-      <c r="E85" s="75"/>
-      <c r="F85" s="78"/>
+      <c r="D79" s="62"/>
+      <c r="E79" s="62"/>
+      <c r="F79" s="58"/>
+      <c r="G79" s="3"/>
+      <c r="H79"/>
+      <c r="I79"/>
+      <c r="J79"/>
+      <c r="K79"/>
+    </row>
+    <row r="80" spans="2:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="B80" s="62"/>
+      <c r="C80" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" s="62"/>
+      <c r="E80" s="62"/>
+      <c r="F80" s="58"/>
+      <c r="G80" s="3"/>
+      <c r="H80"/>
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" s="62"/>
+      <c r="C81" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="D81" s="62"/>
+      <c r="E81" s="62"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="3"/>
+      <c r="H81"/>
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81"/>
+    </row>
+    <row r="82" spans="2:11" ht="150" x14ac:dyDescent="0.25">
+      <c r="B82" s="62"/>
+      <c r="C82" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="58"/>
+      <c r="G82" s="3"/>
+      <c r="H82"/>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82"/>
+    </row>
+    <row r="83" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="63"/>
+      <c r="C83" s="55" t="s">
+        <v>81</v>
+      </c>
+      <c r="D83" s="63"/>
+      <c r="E83" s="63"/>
+      <c r="F83" s="59"/>
+      <c r="G83" s="3"/>
+      <c r="H83"/>
+      <c r="I83"/>
+      <c r="J83"/>
+      <c r="K83"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="3"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+      <c r="G84"/>
+      <c r="H84"/>
+      <c r="I84"/>
+      <c r="J84"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="3"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+      <c r="G85"/>
+      <c r="H85"/>
+      <c r="I85"/>
+      <c r="J85"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="3"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
+    </row>
+    <row r="87" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="3"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
+      <c r="K87"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" s="3"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+      <c r="G88"/>
+      <c r="H88"/>
+      <c r="I88"/>
+      <c r="J88"/>
+      <c r="K88"/>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B89" s="3"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+      <c r="G89"/>
+      <c r="H89"/>
+      <c r="I89"/>
+      <c r="J89"/>
+      <c r="K89"/>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B90" s="3"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+      <c r="G90"/>
+      <c r="H90"/>
+      <c r="I90"/>
+      <c r="J90"/>
+      <c r="K90"/>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B91" s="3"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+      <c r="G91"/>
+      <c r="H91"/>
+      <c r="I91"/>
+      <c r="J91"/>
+      <c r="K91"/>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K92"/>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K93"/>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K94"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="B78:B85"/>
-    <mergeCell ref="D78:D85"/>
-    <mergeCell ref="F78:F85"/>
-    <mergeCell ref="B64:B69"/>
-    <mergeCell ref="D64:D69"/>
-    <mergeCell ref="E64:E69"/>
-    <mergeCell ref="B70:B77"/>
-    <mergeCell ref="D70:D77"/>
-    <mergeCell ref="E70:E77"/>
+  <mergeCells count="29">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="F26:F31"/>
+    <mergeCell ref="B32:B39"/>
+    <mergeCell ref="F32:F39"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="B40:B45"/>
+    <mergeCell ref="F40:F45"/>
+    <mergeCell ref="B46:B51"/>
+    <mergeCell ref="D46:D51"/>
+    <mergeCell ref="E46:E51"/>
     <mergeCell ref="B52:B57"/>
     <mergeCell ref="D52:D57"/>
     <mergeCell ref="E52:E57"/>
     <mergeCell ref="B58:B63"/>
     <mergeCell ref="D58:D63"/>
     <mergeCell ref="E58:E63"/>
-    <mergeCell ref="B40:B45"/>
-    <mergeCell ref="F40:F45"/>
-    <mergeCell ref="B46:B51"/>
-    <mergeCell ref="D46:D51"/>
-    <mergeCell ref="E46:E51"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="F26:F31"/>
-    <mergeCell ref="B32:B39"/>
-    <mergeCell ref="F32:F39"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B64:B69"/>
+    <mergeCell ref="D64:D69"/>
+    <mergeCell ref="E64:E69"/>
+    <mergeCell ref="B76:B83"/>
+    <mergeCell ref="D76:D83"/>
+    <mergeCell ref="E76:E83"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G18" r:id="rId1"/>
+    <hyperlink ref="G19" r:id="rId2"/>
+    <hyperlink ref="G20" r:id="rId3"/>
+    <hyperlink ref="G21" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2785,8 +3501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2801,10 +3517,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="40"/>
+      <c r="C1" s="71"/>
       <c r="D1"/>
       <c r="E1"/>
       <c r="F1"/>
@@ -2868,10 +3584,10 @@
       <c r="B7" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="73"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" s="13"/>
@@ -2888,10 +3604,10 @@
       <c r="B9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="44"/>
+      <c r="C9" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="75"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
@@ -2900,10 +3616,10 @@
       <c r="B10" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="46"/>
+      <c r="C10" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="77"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
@@ -2912,38 +3628,38 @@
       <c r="B11" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="39"/>
+      <c r="C11" s="67" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="68"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
     </row>
     <row r="12" spans="2:7" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="58"/>
+      <c r="C12" s="79" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="80"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
     </row>
     <row r="13" spans="2:7" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="55"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
     </row>
     <row r="14" spans="2:7" ht="73.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="55"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -3000,11 +3716,11 @@
       <c r="G19"/>
     </row>
     <row r="20" spans="1:7" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
+      <c r="B20" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="40"/>
+      <c r="D20" s="41"/>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
@@ -3015,53 +3731,53 @@
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="50"/>
+      <c r="D22" s="38"/>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="61">
+      <c r="B23" s="46">
         <v>66548</v>
       </c>
-      <c r="C23" s="62">
+      <c r="C23" s="47">
         <v>1</v>
       </c>
-      <c r="D23" s="50"/>
+      <c r="D23" s="38"/>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="63">
+      <c r="B24" s="48">
         <v>87432</v>
       </c>
-      <c r="C24" s="64">
+      <c r="C24" s="49">
         <v>0</v>
       </c>
-      <c r="D24" s="50"/>
+      <c r="D24" s="38"/>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" ht="43.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="66"/>
-      <c r="D25" s="50"/>
+      <c r="B25" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="51"/>
+      <c r="D25" s="38"/>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" ht="43.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="53"/>
+      <c r="D26" s="41"/>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
@@ -3078,13 +3794,13 @@
       <c r="F28"/>
     </row>
     <row r="29" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="78"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
@@ -3114,16 +3830,16 @@
         <v>24</v>
       </c>
       <c r="C31" s="36" t="s">
-        <v>25</v>
+        <v>126</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>44</v>
+        <v>128</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3131,19 +3847,19 @@
         <v>2</v>
       </c>
       <c r="B32" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="36" t="s">
-        <v>31</v>
-      </c>
       <c r="D32" s="36" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3151,19 +3867,19 @@
         <v>3</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="36" t="s">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="D33" s="36" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3171,19 +3887,19 @@
         <v>4</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="D34" s="36" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3191,19 +3907,19 @@
         <v>5</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C35" s="36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D35" s="36" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3211,19 +3927,19 @@
         <v>6</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E36" s="12" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
